--- a/data/trans_bre/P3A_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,97%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 1,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 1,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 2,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 2,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,15; 82,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,84; 64,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,67; 227,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,64; 43,41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,3%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; -0,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 1,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 1,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 4,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,89; -20,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,91; 46,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,54; 134,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,63; 232,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,09%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 1,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 3,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 1,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 1,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,96; 65,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,13; 217,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,12; 139,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,81; 57,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,24%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 1,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 3,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 2,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 2,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,12; 24,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,28; 111,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,08; 108,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,15; 71,6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,27%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; -0,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 1,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 1,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 2,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,95; -0,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 53,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,53; 67,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,48; 61,47</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P3A_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,23</t>
+          <t>-1,76; 1,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,77</t>
+          <t>-2,91; 1,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,88</t>
+          <t>-0,91; 2,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,23</t>
+          <t>-2,1; 2,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,15; 82,46</t>
+          <t>-58,41; 83,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,84; 64,04</t>
+          <t>-51,41; 49,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-34,67; 227,85</t>
+          <t>-37,25; 199,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 43,41</t>
+          <t>-27,06; 42,46</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,6</t>
+          <t>-3,56; -0,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,55</t>
+          <t>-1,77; 1,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,95</t>
+          <t>-0,95; 2,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,17</t>
+          <t>0,43; 4,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,89; -20,02</t>
+          <t>-76,82; -15,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,91; 46,26</t>
+          <t>-36,8; 52,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,54; 134,51</t>
+          <t>-40,19; 133,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 232,68</t>
+          <t>8,35; 238,52</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,6</t>
+          <t>-2,22; 1,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,29</t>
+          <t>-0,44; 3,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,89</t>
+          <t>-1,45; 1,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,8</t>
+          <t>-2,88; 2,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 65,71</t>
+          <t>-47,42; 79,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 217,35</t>
+          <t>-20,03; 224,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,12; 139,28</t>
+          <t>-47,73; 132,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,81; 57,79</t>
+          <t>-54,09; 71,28</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,19</t>
+          <t>-3,34; 1,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,78</t>
+          <t>-0,22; 3,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,53</t>
+          <t>-0,77; 2,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,98</t>
+          <t>-0,82; 3,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,12; 24,17</t>
+          <t>-43,15; 21,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 111,4</t>
+          <t>-5,96; 107,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 108,97</t>
+          <t>-19,53; 104,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 71,6</t>
+          <t>-13,91; 72,46</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; -0,01</t>
+          <t>-1,77; -0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,79</t>
+          <t>-0,29; 1,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,43</t>
+          <t>-0,21; 1,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,21</t>
+          <t>-0,09; 2,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,95; -0,83</t>
+          <t>-39,46; 1,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 53,81</t>
+          <t>-7,31; 53,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 67,82</t>
+          <t>-7,37; 73,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 61,47</t>
+          <t>-1,05; 60,26</t>
         </is>
       </c>
     </row>
